--- a/excel_file.xlsx
+++ b/excel_file.xlsx
@@ -1,65 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <definedNames/>
+  <calcPr calcId="144525" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="6">
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t>URL</t>
-  </si>
-  <si>
-    <t>STATUS</t>
-  </si>
-  <si>
-    <t>https://shopee.com.my/user/purchase/order/1987270623/?shopid=55630120</t>
-  </si>
-  <si>
-    <t>https://shopee.com.my/user/purchase/order/1963397597/?shopid=40069949</t>
-  </si>
-  <si>
-    <t>https://shopee.com.my/user/purchase/order/1963292549/?shopid=17868449</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="10"/>
+      <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -76,23 +54,17 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -382,129 +354,207 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" customWidth="1"/>
-    <col min="2" max="2" width="73.140625" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" customWidth="1"/>
+    <col width="11.28515625" customWidth="1" min="1" max="1"/>
+    <col width="73.140625" customWidth="1" min="2" max="2"/>
+    <col width="14.28515625" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>URL</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>STATUS</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>https://shopee.com.my/user/purchase/order/1987270623/?shopid=55630120</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="B3" s="1" t="inlineStr">
+        <is>
+          <t>https://shopee.com.my/user/purchase/order/1963397597/?shopid=40069949</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>https://shopee.com.my/user/purchase/order/1963292549/?shopid=17868449</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>https://shopee.com.my/user/purchase/order/1963292549/?shopid=17868449</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>https://shopee.com.my/user/purchase/order/1963292549/?shopid=17868449</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="B7" s="1" t="inlineStr">
+        <is>
+          <t>https://shopee.com.my/user/purchase/order/1963292549/?shopid=17868449</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="B8" s="1" t="inlineStr">
+        <is>
+          <t>https://shopee.com.my/user/purchase/order/1963292549/?shopid=17868449</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>5</v>
+      <c r="B9" s="1" t="inlineStr">
+        <is>
+          <t>https://shopee.com.my/user/purchase/order/1963292549/?shopid=17868449</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
-    <hyperlink ref="B4" r:id="rId3"/>
-    <hyperlink ref="B5" r:id="rId4"/>
-    <hyperlink ref="B6" r:id="rId5"/>
-    <hyperlink ref="B7" r:id="rId6"/>
-    <hyperlink ref="B8" r:id="rId7"/>
-    <hyperlink ref="B9" r:id="rId8"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B2" r:id="rId1"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B3" r:id="rId2"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B4" r:id="rId3"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B5" r:id="rId4"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B6" r:id="rId5"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B7" r:id="rId6"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B8" r:id="rId7"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B9" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
